--- a/datos/precios/Precio_Bolsa_Nacional_($kwh)_2011.xlsx
+++ b/datos/precios/Precio_Bolsa_Nacional_($kwh)_2011.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145620"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -1212,7 +1212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1435,6 +1435,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1695,7 +1698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1703,26 +1706,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA372"/>
+  <dimension ref="A1:AA368"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A369" sqref="A369:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="57.85546875" customWidth="1"/>
-    <col min="28" max="256" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="57.88671875" customWidth="1"/>
+    <col min="28" max="256" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA1" s="6" t="e">
         <f t="shared" ref="AA1:AA64" si="0">AVERAGE(B1:Y1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1756,7 +1761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.5">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>67.022759666666687</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13.5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>60.112526666666646</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.5">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>82.812695333333352</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="13.5">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>84.393839666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="13.5">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>79.172754000000012</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="13.5">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2344,7 +2349,7 @@
         <v>87.232350666666647</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13.5">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>72.224593999999982</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="13.5">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>80.506152666666637</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="13.5">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>66.767413333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="13.5">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>66.138101333333353</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="13.5">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>72.23365933333335</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="13.5">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2848,7 +2853,7 @@
         <v>66.85777800000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13.5">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2932,7 +2937,7 @@
         <v>61.315236666666699</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="13.5">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>64.627212666666679</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13.5">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3100,7 +3105,7 @@
         <v>59.597189333333297</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="13.5">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3184,7 +3189,7 @@
         <v>79.070416333333327</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="13.5">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>89.774927666666656</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13.5">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3352,7 +3357,7 @@
         <v>100.62021999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="13.5">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3436,7 +3441,7 @@
         <v>102.25879199999997</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13.5">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3520,7 +3525,7 @@
         <v>99.378261333333356</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="13.5">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>94.122579333333348</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="13.5">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>94.823808000000042</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="13.5">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>99.962149999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="13.5">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>122.67539366666669</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="13.5">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3940,7 +3945,7 @@
         <v>125.41182133333336</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="13.5">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>128.03000933333334</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="13.5">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>122.19521166666665</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="13.5">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4192,7 +4197,7 @@
         <v>122.5592933333334</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="13.5">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>109.35713233333331</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="13.5">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4360,7 +4365,7 @@
         <v>106.27795499999998</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="13.5">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4444,7 +4449,7 @@
         <v>106.05383466666666</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="13.5">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>123.80172333333337</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="13.5">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -4612,7 +4617,7 @@
         <v>120.31113600000002</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="13.5">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4696,7 +4701,7 @@
         <v>130.14354366666666</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="13.5">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>128.657455</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="13.5">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>114.7832213333334</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="13.5">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -4948,7 +4953,7 @@
         <v>113.891953</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="13.5">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>113.14156300000002</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="13.5">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>111.57866999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="13.5">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>109.55122833333333</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="13.5">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
@@ -5284,7 +5289,7 @@
         <v>107.85808633333333</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="13.5">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -5368,7 +5373,7 @@
         <v>106.00945400000001</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="13.5">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>107.62988866666664</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="13.5">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -5536,7 +5541,7 @@
         <v>106.09038833333335</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="13.5">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -5620,7 +5625,7 @@
         <v>105.24087233333334</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="13.5">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -5704,7 +5709,7 @@
         <v>103.70749966666671</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="13.5">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>75</v>
       </c>
@@ -5788,7 +5793,7 @@
         <v>93.627300000000048</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="13.5">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -5872,7 +5877,7 @@
         <v>91.388957333333352</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="13.5">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>103.07635933333337</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="13.5">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -6040,7 +6045,7 @@
         <v>91.561863666666682</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="13.5">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
@@ -6124,7 +6129,7 @@
         <v>92.691223666666644</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="13.5">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>96.918536000000032</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="13.5">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
@@ -6292,7 +6297,7 @@
         <v>98.945753000000011</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="13.5">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -6376,7 +6381,7 @@
         <v>95.597003333333348</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="13.5">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -6460,7 +6465,7 @@
         <v>99.268219666666653</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="13.5">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -6544,7 +6549,7 @@
         <v>103.82227166666671</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="13.5">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -6628,7 +6633,7 @@
         <v>95.187875666666642</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="13.5">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>86</v>
       </c>
@@ -6712,7 +6717,7 @@
         <v>97.711705666666646</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="13.5">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -6796,7 +6801,7 @@
         <v>96.96888399999996</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="13.5">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>88</v>
       </c>
@@ -6880,7 +6885,7 @@
         <v>89.056537666666699</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="13.5">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>89</v>
       </c>
@@ -6964,7 +6969,7 @@
         <v>88.256775333333337</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="13.5">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7048,7 +7053,7 @@
         <v>92.261098666666712</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="13.5">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7132,7 +7137,7 @@
         <v>85.059493333333322</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="13.5">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7216,7 +7221,7 @@
         <v>80.929791000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="13.5">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7300,7 +7305,7 @@
         <v>81.084549333333371</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="13.5">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7384,7 +7389,7 @@
         <v>89.389078666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="13.5">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7468,7 +7473,7 @@
         <v>89.122719333333308</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="13.5">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7552,7 +7557,7 @@
         <v>85.197698666666653</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="13.5">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7636,7 +7641,7 @@
         <v>83.223119333333329</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="13.5">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7720,7 +7725,7 @@
         <v>79.507933666666673</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="13.5">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7804,7 +7809,7 @@
         <v>77.830847666666642</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="13.5">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7888,7 +7893,7 @@
         <v>81.891626333333377</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="13.5">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -7972,7 +7977,7 @@
         <v>86.956419333333315</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="13.5">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8056,7 +8061,7 @@
         <v>86.812191666666635</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="13.5">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8140,7 +8145,7 @@
         <v>87.711982333333324</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="13.5">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8224,7 +8229,7 @@
         <v>85.375625999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="13.5">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8308,7 +8313,7 @@
         <v>78.665545333333355</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="13.5">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8392,7 +8397,7 @@
         <v>76.233719666666673</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="13.5">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8476,7 +8481,7 @@
         <v>77.998201000000009</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="13.5">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8560,7 +8565,7 @@
         <v>84.207900000000038</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="13.5">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8644,7 +8649,7 @@
         <v>98.558572666666691</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="13.5">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8728,7 +8733,7 @@
         <v>79.589451666666648</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="13.5">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8812,7 +8817,7 @@
         <v>70.044003333333336</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="13.5">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8896,7 +8901,7 @@
         <v>66.117424666666679</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="13.5">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -8980,7 +8985,7 @@
         <v>57.641420666666647</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="13.5">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9064,7 +9069,7 @@
         <v>46.227753333333339</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="13.5">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9148,7 +9153,7 @@
         <v>69.299597999999989</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="13.5">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9232,7 +9237,7 @@
         <v>67.325314666666671</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="13.5">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>70.214590333333362</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="13.5">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9400,7 +9405,7 @@
         <v>79.736775333333313</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="13.5">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9484,7 +9489,7 @@
         <v>85.130731333333316</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="13.5">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>120</v>
       </c>
@@ -9568,7 +9573,7 @@
         <v>84.198306666666639</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="13.5">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>121</v>
       </c>
@@ -9652,7 +9657,7 @@
         <v>79.947320333333309</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="13.5">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>122</v>
       </c>
@@ -9736,7 +9741,7 @@
         <v>90.804010333333324</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="13.5">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>123</v>
       </c>
@@ -9820,7 +9825,7 @@
         <v>94.099108999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="13.5">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>124</v>
       </c>
@@ -9904,7 +9909,7 @@
         <v>111.80278766666667</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="13.5">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>125</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>113.931393</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="13.5">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>126</v>
       </c>
@@ -10072,7 +10077,7 @@
         <v>111.59383166666663</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="13.5">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>127</v>
       </c>
@@ -10156,7 +10161,7 @@
         <v>111.54871266666665</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="13.5">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>128</v>
       </c>
@@ -10240,7 +10245,7 @@
         <v>104.14661999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="13.5">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>129</v>
       </c>
@@ -10324,7 +10329,7 @@
         <v>104.94801899999997</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="13.5">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>130</v>
       </c>
@@ -10408,7 +10413,7 @@
         <v>97.462899333333326</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="13.5">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>131</v>
       </c>
@@ -10492,7 +10497,7 @@
         <v>82.113556999999986</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="13.5">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>132</v>
       </c>
@@ -10576,7 +10581,7 @@
         <v>72.326367666666656</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="13.5">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>133</v>
       </c>
@@ -10660,7 +10665,7 @@
         <v>64.58225933333334</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="13.5">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>41.827907000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="13.5">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>135</v>
       </c>
@@ -10828,7 +10833,7 @@
         <v>37.493924</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="13.5">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>136</v>
       </c>
@@ -10912,7 +10917,7 @@
         <v>55.736553999999984</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="13.5">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>137</v>
       </c>
@@ -10996,7 +11001,7 @@
         <v>61.610531000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="13.5">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>138</v>
       </c>
@@ -11080,7 +11085,7 @@
         <v>54.209179333333346</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="13.5">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
@@ -11164,7 +11169,7 @@
         <v>40.594810999999986</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="13.5">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>140</v>
       </c>
@@ -11248,7 +11253,7 @@
         <v>36.116903333333326</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="13.5">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>141</v>
       </c>
@@ -11332,7 +11337,7 @@
         <v>35.356674333333338</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="13.5">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>142</v>
       </c>
@@ -11416,7 +11421,7 @@
         <v>38.637903999999992</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="13.5">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>143</v>
       </c>
@@ -11500,7 +11505,7 @@
         <v>63.100948000000017</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="13.5">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>144</v>
       </c>
@@ -11584,7 +11589,7 @@
         <v>64.859302</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="13.5">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>145</v>
       </c>
@@ -11668,7 +11673,7 @@
         <v>67.884381666666684</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="13.5">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>146</v>
       </c>
@@ -11752,7 +11757,7 @@
         <v>65.501808333333329</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="13.5">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>147</v>
       </c>
@@ -11836,7 +11841,7 @@
         <v>65.683838999999978</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="13.5">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>148</v>
       </c>
@@ -11920,7 +11925,7 @@
         <v>65.239941666666653</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="13.5">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>149</v>
       </c>
@@ -12004,7 +12009,7 @@
         <v>49.339377333333339</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="13.5">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>150</v>
       </c>
@@ -12088,7 +12093,7 @@
         <v>59.497734666666666</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="13.5">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>151</v>
       </c>
@@ -12172,7 +12177,7 @@
         <v>49.894896999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="13.5">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>152</v>
       </c>
@@ -12256,7 +12261,7 @@
         <v>65.164353666666656</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="13.5">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>153</v>
       </c>
@@ -12340,7 +12345,7 @@
         <v>64.70290900000002</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="13.5">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>154</v>
       </c>
@@ -12424,7 +12429,7 @@
         <v>64.349035999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="13.5">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>155</v>
       </c>
@@ -12508,7 +12513,7 @@
         <v>59.054295666666654</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="13.5">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>156</v>
       </c>
@@ -12592,7 +12597,7 @@
         <v>40.577923666666663</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="13.5">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>157</v>
       </c>
@@ -12676,7 +12681,7 @@
         <v>60.012895000000015</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="13.5">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>158</v>
       </c>
@@ -12760,7 +12765,7 @@
         <v>70.808887666666649</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="13.5">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>159</v>
       </c>
@@ -12844,7 +12849,7 @@
         <v>73.699667333333323</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="13.5">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>160</v>
       </c>
@@ -12928,7 +12933,7 @@
         <v>74.493971999999971</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="13.5">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>161</v>
       </c>
@@ -13012,7 +13017,7 @@
         <v>70.572947999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="13.5">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>162</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>66.93600233333332</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="13.5">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>163</v>
       </c>
@@ -13180,7 +13185,7 @@
         <v>45.349531000000013</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="13.5">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>164</v>
       </c>
@@ -13264,7 +13269,7 @@
         <v>63.958012999999987</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="13.5">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>165</v>
       </c>
@@ -13348,7 +13353,7 @@
         <v>62.724540333333358</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="13.5">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>166</v>
       </c>
@@ -13432,7 +13437,7 @@
         <v>58.757806999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="13.5">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>167</v>
       </c>
@@ -13516,7 +13521,7 @@
         <v>61.864960999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="13.5">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
@@ -13600,7 +13605,7 @@
         <v>61.655181333333331</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="13.5">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
@@ -13684,7 +13689,7 @@
         <v>58.067442999999976</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="13.5">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>170</v>
       </c>
@@ -13768,7 +13773,7 @@
         <v>46.866932999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="13.5">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>171</v>
       </c>
@@ -13852,7 +13857,7 @@
         <v>59.464563666666642</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="13.5">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>172</v>
       </c>
@@ -13936,7 +13941,7 @@
         <v>58.463936999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="13.5">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>173</v>
       </c>
@@ -14020,7 +14025,7 @@
         <v>53.527416333333342</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="13.5">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>174</v>
       </c>
@@ -14104,7 +14109,7 @@
         <v>58.437730999999985</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="13.5">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>175</v>
       </c>
@@ -14188,7 +14193,7 @@
         <v>60.143404333333336</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="13.5">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>176</v>
       </c>
@@ -14272,7 +14277,7 @@
         <v>43.237176999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="13.5">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>177</v>
       </c>
@@ -14356,7 +14361,7 @@
         <v>38.797847666666677</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="13.5">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>178</v>
       </c>
@@ -14440,7 +14445,7 @@
         <v>64.761015666666665</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="13.5">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>179</v>
       </c>
@@ -14524,7 +14529,7 @@
         <v>48.029734666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="13.5">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>180</v>
       </c>
@@ -14608,7 +14613,7 @@
         <v>56.12968</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="13.5">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>181</v>
       </c>
@@ -14692,7 +14697,7 @@
         <v>59.28288433333335</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="13.5">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
@@ -14776,7 +14781,7 @@
         <v>50.994611666666657</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="13.5">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>183</v>
       </c>
@@ -14860,7 +14865,7 @@
         <v>39.153793999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="13.5">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>184</v>
       </c>
@@ -14944,7 +14949,7 @@
         <v>37.750553000000011</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="13.5">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>185</v>
       </c>
@@ -15028,7 +15033,7 @@
         <v>49.951141666666665</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="13.5">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>186</v>
       </c>
@@ -15112,7 +15117,7 @@
         <v>66.193696333333349</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="13.5">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>187</v>
       </c>
@@ -15196,7 +15201,7 @@
         <v>71.45533966666666</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="13.5">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>188</v>
       </c>
@@ -15280,7 +15285,7 @@
         <v>72.039265666666651</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="13.5">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>189</v>
       </c>
@@ -15364,7 +15369,7 @@
         <v>65.938957999999985</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="13.5">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>190</v>
       </c>
@@ -15448,7 +15453,7 @@
         <v>62.709362666666657</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="13.5">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>191</v>
       </c>
@@ -15532,7 +15537,7 @@
         <v>60.44277499999999</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="13.5">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>192</v>
       </c>
@@ -15616,7 +15621,7 @@
         <v>78.640426333333309</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="13.5">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>193</v>
       </c>
@@ -15700,7 +15705,7 @@
         <v>74.810085000000029</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="13.5">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>194</v>
       </c>
@@ -15784,7 +15789,7 @@
         <v>71.95716266666669</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="13.5">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
@@ -15868,7 +15873,7 @@
         <v>76.126021999999978</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="13.5">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>196</v>
       </c>
@@ -15952,7 +15957,7 @@
         <v>74.361085000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="13.5">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>197</v>
       </c>
@@ -16036,7 +16041,7 @@
         <v>62.75183599999999</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="13.5">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>198</v>
       </c>
@@ -16120,7 +16125,7 @@
         <v>41.110796000000015</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="13.5">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>199</v>
       </c>
@@ -16204,7 +16209,7 @@
         <v>60.731168999999987</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="13.5">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>200</v>
       </c>
@@ -16288,7 +16293,7 @@
         <v>64.454956999999979</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="13.5">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>201</v>
       </c>
@@ -16372,7 +16377,7 @@
         <v>72.466983000000013</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="13.5">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>202</v>
       </c>
@@ -16456,7 +16461,7 @@
         <v>68.011524333333313</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="13.5">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>203</v>
       </c>
@@ -16540,7 +16545,7 @@
         <v>61.95236133333335</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="13.5">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>204</v>
       </c>
@@ -16624,7 +16629,7 @@
         <v>54.946177333333338</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="13.5">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>205</v>
       </c>
@@ -16708,7 +16713,7 @@
         <v>43.93233900000002</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="13.5">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>206</v>
       </c>
@@ -16792,7 +16797,7 @@
         <v>40.934073999999995</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="13.5">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>207</v>
       </c>
@@ -16876,7 +16881,7 @@
         <v>63.93893933333333</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="13.5">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>208</v>
       </c>
@@ -16960,7 +16965,7 @@
         <v>56.412310999999988</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="13.5">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>209</v>
       </c>
@@ -17044,7 +17049,7 @@
         <v>42.268734000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="13.5">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>210</v>
       </c>
@@ -17128,7 +17133,7 @@
         <v>41.742624666666686</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="13.5">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>211</v>
       </c>
@@ -17212,7 +17217,7 @@
         <v>40.964133666666669</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="13.5">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>212</v>
       </c>
@@ -17296,7 +17301,7 @@
         <v>38.590788333333315</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="13.5">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>213</v>
       </c>
@@ -17380,7 +17385,7 @@
         <v>43.230696000000016</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="13.5">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>214</v>
       </c>
@@ -17464,7 +17469,7 @@
         <v>43.004337333333332</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="13.5">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>215</v>
       </c>
@@ -17548,7 +17553,7 @@
         <v>47.132826666666681</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="13.5">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>216</v>
       </c>
@@ -17632,7 +17637,7 @@
         <v>47.42383499999999</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="13.5">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>217</v>
       </c>
@@ -17716,7 +17721,7 @@
         <v>51.125144333333338</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="13.5">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>218</v>
       </c>
@@ -17800,7 +17805,7 @@
         <v>43.96478533333331</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="13.5">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>219</v>
       </c>
@@ -17884,7 +17889,7 @@
         <v>52.14479166666667</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="13.5">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>220</v>
       </c>
@@ -17968,7 +17973,7 @@
         <v>51.063477999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="13.5">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>221</v>
       </c>
@@ -18052,7 +18057,7 @@
         <v>72.68468533333332</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="13.5">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>222</v>
       </c>
@@ -18136,7 +18141,7 @@
         <v>71.217030000000008</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="13.5">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>223</v>
       </c>
@@ -18220,7 +18225,7 @@
         <v>70.67209533333336</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="13.5">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>224</v>
       </c>
@@ -18304,7 +18309,7 @@
         <v>73.020169999999993</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="13.5">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>225</v>
       </c>
@@ -18388,7 +18393,7 @@
         <v>62.417263333333345</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="13.5">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>226</v>
       </c>
@@ -18472,7 +18477,7 @@
         <v>57.232462666666656</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="13.5">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>227</v>
       </c>
@@ -18556,7 +18561,7 @@
         <v>65.205127666666655</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="13.5">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>228</v>
       </c>
@@ -18640,7 +18645,7 @@
         <v>62.121417000000029</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="13.5">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>229</v>
       </c>
@@ -18724,7 +18729,7 @@
         <v>51.656618333333334</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="13.5">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>230</v>
       </c>
@@ -18808,7 +18813,7 @@
         <v>64.586902666666674</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="13.5">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>231</v>
       </c>
@@ -18892,7 +18897,7 @@
         <v>66.70435599999999</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="13.5">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>232</v>
       </c>
@@ -18976,7 +18981,7 @@
         <v>70.978466666666634</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="13.5">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>233</v>
       </c>
@@ -19060,7 +19065,7 @@
         <v>47.683409333333344</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="13.5">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>234</v>
       </c>
@@ -19144,7 +19149,7 @@
         <v>55.987100000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="13.5">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>235</v>
       </c>
@@ -19228,7 +19233,7 @@
         <v>58.376109333333339</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="13.5">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>236</v>
       </c>
@@ -19312,7 +19317,7 @@
         <v>65.57079866666669</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="13.5">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>237</v>
       </c>
@@ -19396,7 +19401,7 @@
         <v>61.440302666666675</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="13.5">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>238</v>
       </c>
@@ -19480,7 +19485,7 @@
         <v>56.364877666666672</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="13.5">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>239</v>
       </c>
@@ -19564,7 +19569,7 @@
         <v>48.389960333333335</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="13.5">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>240</v>
       </c>
@@ -19648,7 +19653,7 @@
         <v>38.233121333333322</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="13.5">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>241</v>
       </c>
@@ -19732,7 +19737,7 @@
         <v>64.061308666666676</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="13.5">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19816,7 +19821,7 @@
         <v>78.549021000000025</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="13.5">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19900,7 +19905,7 @@
         <v>76.418624000000008</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="13.5">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -19984,7 +19989,7 @@
         <v>72.669391000000019</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="13.5">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20068,7 +20073,7 @@
         <v>72.020753666666664</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="13.5">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20152,7 +20157,7 @@
         <v>81.855944333333355</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="13.5">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20236,7 +20241,7 @@
         <v>88.324873333333343</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="13.5">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20320,7 +20325,7 @@
         <v>116.66474633333327</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="13.5">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20404,7 +20409,7 @@
         <v>110.90253766666666</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="13.5">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20488,7 +20493,7 @@
         <v>108.84300366666666</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="13.5">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20572,7 +20577,7 @@
         <v>101.688281</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="13.5">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20656,7 +20661,7 @@
         <v>115.56029833333332</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="13.5">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20740,7 +20745,7 @@
         <v>114.48712766666665</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="13.5">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20824,7 +20829,7 @@
         <v>92.352544000000023</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="13.5">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20908,7 +20913,7 @@
         <v>96.056443333333291</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="13.5">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -20992,7 +20997,7 @@
         <v>115.11802400000001</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="13.5">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21076,7 +21081,7 @@
         <v>99.477860333333339</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="13.5">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21160,7 +21165,7 @@
         <v>86.893338999999983</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="13.5">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21244,7 +21249,7 @@
         <v>65.793343666666701</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="13.5">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21328,7 +21333,7 @@
         <v>84.283609333333345</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="13.5">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21412,7 +21417,7 @@
         <v>64.942536000000004</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="13.5">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21496,7 +21501,7 @@
         <v>79.527845666666664</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="13.5">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21580,7 +21585,7 @@
         <v>85.862130666666701</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="13.5">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21664,7 +21669,7 @@
         <v>80.48005400000001</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="13.5">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21748,7 +21753,7 @@
         <v>86.767565999999988</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="13.5">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21832,7 +21837,7 @@
         <v>81.789678333333299</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="13.5">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21916,7 +21921,7 @@
         <v>81.071589333333307</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="13.5">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -22000,7 +22005,7 @@
         <v>74.34025833333331</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="13.5">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22084,7 +22089,7 @@
         <v>91.964117333333306</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="13.5">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22168,7 +22173,7 @@
         <v>98.914549666666687</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="13.5">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22252,7 +22257,7 @@
         <v>90.655717999999979</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="13.5">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22336,7 +22341,7 @@
         <v>117.84721233333336</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="13.5">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>274</v>
       </c>
@@ -22420,7 +22425,7 @@
         <v>96.564929666666671</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="13.5">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>275</v>
       </c>
@@ -22504,7 +22509,7 @@
         <v>84.118721333333298</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="13.5">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>276</v>
       </c>
@@ -22588,7 +22593,7 @@
         <v>80.317322666666684</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="13.5">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>277</v>
       </c>
@@ -22672,7 +22677,7 @@
         <v>100.08095000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="13.5">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>278</v>
       </c>
@@ -22756,7 +22761,7 @@
         <v>96.884700000000024</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="13.5">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>279</v>
       </c>
@@ -22840,7 +22845,7 @@
         <v>103.57300300000003</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="13.5">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>280</v>
       </c>
@@ -22924,7 +22929,7 @@
         <v>112.97728633333334</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="13.5">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>281</v>
       </c>
@@ -23008,7 +23013,7 @@
         <v>93.512675333333291</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="13.5">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>282</v>
       </c>
@@ -23092,7 +23097,7 @@
         <v>89.460853</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="13.5">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>283</v>
       </c>
@@ -23176,7 +23181,7 @@
         <v>87.05549400000001</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="13.5">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>284</v>
       </c>
@@ -23260,7 +23265,7 @@
         <v>85.091159333333337</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="13.5">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>285</v>
       </c>
@@ -23344,7 +23349,7 @@
         <v>106.15667566666663</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="13.5">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>286</v>
       </c>
@@ -23428,7 +23433,7 @@
         <v>91.466089666666662</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="13.5">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>287</v>
       </c>
@@ -23512,7 +23517,7 @@
         <v>97.806048333333351</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="13.5">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>288</v>
       </c>
@@ -23596,7 +23601,7 @@
         <v>93.373629333333341</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="13.5">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -23680,7 +23685,7 @@
         <v>90.676044666666655</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="13.5">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>290</v>
       </c>
@@ -23764,7 +23769,7 @@
         <v>86.944238333333331</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="13.5">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>291</v>
       </c>
@@ -23848,7 +23853,7 @@
         <v>92.284265333333337</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="13.5">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>292</v>
       </c>
@@ -23932,7 +23937,7 @@
         <v>99.396560666666673</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="13.5">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>293</v>
       </c>
@@ -24016,7 +24021,7 @@
         <v>98.673019333333329</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="13.5">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>294</v>
       </c>
@@ -24100,7 +24105,7 @@
         <v>94.636743666666689</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="13.5">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>295</v>
       </c>
@@ -24184,7 +24189,7 @@
         <v>95.342241666666624</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="13.5">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>296</v>
       </c>
@@ -24268,7 +24273,7 @@
         <v>95.152907000000013</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="13.5">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>297</v>
       </c>
@@ -24352,7 +24357,7 @@
         <v>77.995857333333348</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="13.5">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>298</v>
       </c>
@@ -24436,7 +24441,7 @@
         <v>92.868426333333332</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="13.5">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>299</v>
       </c>
@@ -24520,7 +24525,7 @@
         <v>82.00584299999997</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="13.5">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>300</v>
       </c>
@@ -24604,7 +24609,7 @@
         <v>82.049474000000046</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="13.5">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>301</v>
       </c>
@@ -24688,7 +24693,7 @@
         <v>82.021018333333316</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="13.5">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -24772,7 +24777,7 @@
         <v>68.952641666666679</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="13.5">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>303</v>
       </c>
@@ -24856,7 +24861,7 @@
         <v>58.638156333333335</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="13.5">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>304</v>
       </c>
@@ -24940,7 +24945,7 @@
         <v>56.48208433333334</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="13.5">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>305</v>
       </c>
@@ -25024,7 +25029,7 @@
         <v>87.958658333333304</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="13.5">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>306</v>
       </c>
@@ -25108,7 +25113,7 @@
         <v>92.6467526666667</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="13.5">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>307</v>
       </c>
@@ -25192,7 +25197,7 @@
         <v>102.79844933333332</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="13.5">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>308</v>
       </c>
@@ -25276,7 +25281,7 @@
         <v>116.86086866666669</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="13.5">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>309</v>
       </c>
@@ -25360,7 +25365,7 @@
         <v>107.732597</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="13.5">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -25444,7 +25449,7 @@
         <v>102.57783833333339</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="13.5">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>311</v>
       </c>
@@ -25528,7 +25533,7 @@
         <v>76.492694666666637</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="13.5">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>312</v>
       </c>
@@ -25612,7 +25617,7 @@
         <v>85.969177666666653</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="13.5">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>313</v>
       </c>
@@ -25696,7 +25701,7 @@
         <v>107.83964500000002</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="13.5">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>314</v>
       </c>
@@ -25780,7 +25785,7 @@
         <v>78.498655999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="13.5">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>315</v>
       </c>
@@ -25864,7 +25869,7 @@
         <v>69.487644666666668</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="13.5">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>316</v>
       </c>
@@ -25948,7 +25953,7 @@
         <v>71.949815666666652</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="13.5">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -26032,7 +26037,7 @@
         <v>62.581040000000009</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="13.5">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>318</v>
       </c>
@@ -26116,7 +26121,7 @@
         <v>44.797393999999969</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="13.5">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>319</v>
       </c>
@@ -26200,7 +26205,7 @@
         <v>52.541119000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="13.5">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>320</v>
       </c>
@@ -26284,7 +26289,7 @@
         <v>59.425672333333324</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="13.5">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>321</v>
       </c>
@@ -26368,7 +26373,7 @@
         <v>55.389625333333328</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="13.5">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>322</v>
       </c>
@@ -26452,7 +26457,7 @@
         <v>62.784843666666688</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="13.5">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -26536,7 +26541,7 @@
         <v>61.252433666666697</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="13.5">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>324</v>
       </c>
@@ -26620,7 +26625,7 @@
         <v>64.324591000000012</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="13.5">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>325</v>
       </c>
@@ -26704,7 +26709,7 @@
         <v>54.099171999999989</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="13.5">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>326</v>
       </c>
@@ -26788,7 +26793,7 @@
         <v>73.044268666666667</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="13.5">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>327</v>
       </c>
@@ -26872,7 +26877,7 @@
         <v>82.787923333333339</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="13.5">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>328</v>
       </c>
@@ -26956,7 +26961,7 @@
         <v>77.422482000000016</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="13.5">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>329</v>
       </c>
@@ -27040,7 +27045,7 @@
         <v>82.338238333333337</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="13.5">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>330</v>
       </c>
@@ -27124,7 +27129,7 @@
         <v>77.658778666666663</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="13.5">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>331</v>
       </c>
@@ -27208,7 +27213,7 @@
         <v>55.360958333333315</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="13.5">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>332</v>
       </c>
@@ -27292,7 +27297,7 @@
         <v>37.796322000000011</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="13.5">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>333</v>
       </c>
@@ -27376,7 +27381,7 @@
         <v>39.298161666666672</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="13.5">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>334</v>
       </c>
@@ -27460,7 +27465,7 @@
         <v>63.32564366666665</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="13.5">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>336</v>
       </c>
@@ -27544,7 +27549,7 @@
         <v>63.865640333333353</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="13.5">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>337</v>
       </c>
@@ -27628,7 +27633,7 @@
         <v>79.086472666666694</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="13.5">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>338</v>
       </c>
@@ -27712,7 +27717,7 @@
         <v>86.337513333333334</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="13.5">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>339</v>
       </c>
@@ -27796,7 +27801,7 @@
         <v>66.368986666666672</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="13.5">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>340</v>
       </c>
@@ -27880,7 +27885,7 @@
         <v>65.022561666666704</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="13.5">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>341</v>
       </c>
@@ -27964,7 +27969,7 @@
         <v>62.753843333333357</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="13.5">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>342</v>
       </c>
@@ -28048,7 +28053,7 @@
         <v>77.821862333333357</v>
       </c>
     </row>
-    <row r="316" spans="1:27" ht="13.5">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>343</v>
       </c>
@@ -28132,7 +28137,7 @@
         <v>74.02100466666667</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="13.5">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>344</v>
       </c>
@@ -28216,7 +28221,7 @@
         <v>75.039863333333344</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="13.5">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>345</v>
       </c>
@@ -28300,7 +28305,7 @@
         <v>86.949828333333315</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="13.5">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>346</v>
       </c>
@@ -28384,7 +28389,7 @@
         <v>72.964463333333313</v>
       </c>
     </row>
-    <row r="320" spans="1:27" ht="13.5">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>347</v>
       </c>
@@ -28468,7 +28473,7 @@
         <v>59.368845000000015</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="13.5">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>348</v>
       </c>
@@ -28552,7 +28557,7 @@
         <v>56.488051333333338</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="13.5">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>349</v>
       </c>
@@ -28636,7 +28641,7 @@
         <v>76.89851400000002</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="13.5">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>350</v>
       </c>
@@ -28720,7 +28725,7 @@
         <v>83.234806666666671</v>
       </c>
     </row>
-    <row r="324" spans="1:27" ht="13.5">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>351</v>
       </c>
@@ -28804,7 +28809,7 @@
         <v>76.993471666666679</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="13.5">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>352</v>
       </c>
@@ -28888,7 +28893,7 @@
         <v>79.568992666666645</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="13.5">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>353</v>
       </c>
@@ -28972,7 +28977,7 @@
         <v>65.712096000000003</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="13.5">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>354</v>
       </c>
@@ -29056,7 +29061,7 @@
         <v>51.728205000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="13.5">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>355</v>
       </c>
@@ -29140,7 +29145,7 @@
         <v>79.445424999999986</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="13.5">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>356</v>
       </c>
@@ -29224,7 +29229,7 @@
         <v>68.984669666666647</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="13.5">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>357</v>
       </c>
@@ -29308,7 +29313,7 @@
         <v>69.626029333333335</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="13.5">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>358</v>
       </c>
@@ -29392,7 +29397,7 @@
         <v>76.206717999999995</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="13.5">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>359</v>
       </c>
@@ -29476,7 +29481,7 @@
         <v>54.093635000000013</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="13.5">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>360</v>
       </c>
@@ -29560,7 +29565,7 @@
         <v>66.670127666666673</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="13.5">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>361</v>
       </c>
@@ -29644,7 +29649,7 @@
         <v>50.043059333333332</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="13.5">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>362</v>
       </c>
@@ -29728,7 +29733,7 @@
         <v>74.337840999999983</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="13.5">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>363</v>
       </c>
@@ -29812,7 +29817,7 @@
         <v>78.463933666666648</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="13.5">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>364</v>
       </c>
@@ -29896,7 +29901,7 @@
         <v>74.735377999999983</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="13.5">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>365</v>
       </c>
@@ -29980,7 +29985,7 @@
         <v>67.260466666666687</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="13.5">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>366</v>
       </c>
@@ -30064,7 +30069,7 @@
         <v>72.727430333333345</v>
       </c>
     </row>
-    <row r="340" spans="1:27" ht="13.5">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>367</v>
       </c>
@@ -30148,7 +30153,7 @@
         <v>50.588750333333316</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="13.5">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>368</v>
       </c>
@@ -30232,7 +30237,7 @@
         <v>45.622515999999997</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="13.5">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>369</v>
       </c>
@@ -30316,7 +30321,7 @@
         <v>57.290299666666648</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="13.5">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>370</v>
       </c>
@@ -30400,7 +30405,7 @@
         <v>56.306693333333335</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="13.5">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>371</v>
       </c>
@@ -30484,7 +30489,7 @@
         <v>57.110246999999994</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="13.5">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>372</v>
       </c>
@@ -30568,7 +30573,7 @@
         <v>44.796045999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="13.5">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>373</v>
       </c>
@@ -30652,7 +30657,7 @@
         <v>47.020715666666668</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="13.5">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>374</v>
       </c>
@@ -30736,7 +30741,7 @@
         <v>45.315118333333324</v>
       </c>
     </row>
-    <row r="348" spans="1:27" ht="13.5">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>375</v>
       </c>
@@ -30820,7 +30825,7 @@
         <v>43.421927333333336</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="13.5">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>376</v>
       </c>
@@ -30904,7 +30909,7 @@
         <v>51.155043999999982</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="13.5">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>377</v>
       </c>
@@ -30988,7 +30993,7 @@
         <v>63.635032333333349</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="13.5">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>378</v>
       </c>
@@ -31072,7 +31077,7 @@
         <v>63.129540999999989</v>
       </c>
     </row>
-    <row r="352" spans="1:27" ht="13.5">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>379</v>
       </c>
@@ -31156,7 +31161,7 @@
         <v>64.189244666666696</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="13.5">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>380</v>
       </c>
@@ -31240,7 +31245,7 @@
         <v>67.21845633333335</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="13.5">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>381</v>
       </c>
@@ -31324,7 +31329,7 @@
         <v>50.008442000000024</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="13.5">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>382</v>
       </c>
@@ -31408,7 +31413,7 @@
         <v>45.845794333333316</v>
       </c>
     </row>
-    <row r="356" spans="1:27" ht="13.5">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>383</v>
       </c>
@@ -31492,7 +31497,7 @@
         <v>47.904251333333342</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="13.5">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>384</v>
       </c>
@@ -31576,7 +31581,7 @@
         <v>53.663769666666646</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="13.5">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>385</v>
       </c>
@@ -31660,7 +31665,7 @@
         <v>50.561404666666668</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="13.5">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>386</v>
       </c>
@@ -31744,7 +31749,7 @@
         <v>60.868116000000022</v>
       </c>
     </row>
-    <row r="360" spans="1:27" ht="13.5">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>387</v>
       </c>
@@ -31828,7 +31833,7 @@
         <v>57.204237333333339</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="13.5">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>388</v>
       </c>
@@ -31912,7 +31917,7 @@
         <v>45.883158333333334</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="13.5">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>389</v>
       </c>
@@ -31996,7 +32001,7 @@
         <v>41.181629000000015</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="13.5">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>390</v>
       </c>
@@ -32080,7 +32085,7 @@
         <v>58.364668666666638</v>
       </c>
     </row>
-    <row r="364" spans="1:27" ht="13.5">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>391</v>
       </c>
@@ -32164,7 +32169,7 @@
         <v>69.024668666666685</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="13.5">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>392</v>
       </c>
@@ -32248,7 +32253,7 @@
         <v>67.140951333333334</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="13.5">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>393</v>
       </c>
@@ -32332,7 +32337,7 @@
         <v>68.983172999999979</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="13.5">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>394</v>
       </c>
@@ -32416,7 +32421,7 @@
         <v>61.575258999999996</v>
       </c>
     </row>
-    <row r="368" spans="1:27" ht="13.5">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>395</v>
       </c>
@@ -32498,30 +32503,6 @@
       <c r="AA368" s="6">
         <f>AVERAGE(B368:Y368)</f>
         <v>53.44069866666667</v>
-      </c>
-    </row>
-    <row r="369" spans="27:27" ht="409.6" hidden="1" customHeight="1">
-      <c r="AA369" s="6" t="e">
-        <f t="shared" ref="AA369:AA372" si="6">AVERAGE(B369:Y369)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="370" spans="27:27" ht="12.95" customHeight="1">
-      <c r="AA370" s="6">
-        <f>AVERAGE(AA4:AA368)</f>
-        <v>75.013184491324225</v>
-      </c>
-    </row>
-    <row r="371" spans="27:27">
-      <c r="AA371" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="372" spans="27:27">
-      <c r="AA372" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -32547,6 +32528,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010081F15821DEA74440826E0ABE6ED0431E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e9496f45e65ed9a2f15ea6e66860ba1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1053b607-01f4-49d3-996a-42706195cb59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65b945c2a5fc5063e2f35c66e1076b14" ns2:_="">
     <xsd:import namespace="1053b607-01f4-49d3-996a-42706195cb59"/>
@@ -32682,15 +32672,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D53B27C-1300-462E-98E0-3E43299A58D4}">
   <ds:schemaRefs>
@@ -32700,6 +32681,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC47B74-B257-49E3-9FBF-C359FF6A1508}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD25C29-44A1-4CD4-A443-341083789169}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32715,20 +32712,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC47B74-B257-49E3-9FBF-C359FF6A1508}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>